--- a/Saved_file/EM001/2026_02/work_logs_EM001_2026_02.xlsx
+++ b/Saved_file/EM001/2026_02/work_logs_EM001_2026_02.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Fraud_Events" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Mouse_Details" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Browser_Sessions" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -836,7 +835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z85"/>
+  <dimension ref="A1:Z96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9208,1265 +9207,1082 @@
         <v>0.119</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Session_ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Session_Start</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Session_End</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Total_Seconds</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Total_Time</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BROWSER_20260202_00</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-02-01 22:34:16</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Mouse session 1 - Score: 0.000</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>EM001</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2026-02-02 12:47:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2026-02-02 20:02:11</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>26111</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>07:15:00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BROWSER_20260203_00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>20260201_223404</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>22:34:16</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>17</v>
+      </c>
+      <c r="L86" t="n">
+        <v>17</v>
+      </c>
+      <c r="M86" t="n">
+        <v>10</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" t="n">
+        <v>9</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="S86" t="n">
+        <v>52.94</v>
+      </c>
+      <c r="T86" t="n">
+        <v>73.59</v>
+      </c>
+      <c r="U86" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="V86" t="n">
+        <v>47.64</v>
+      </c>
+      <c r="W86" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="X86" t="n">
+        <v>162.46</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-02-01 23:01:41</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Mouse session 1 - Score: 0.002</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>EM001</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2026-02-03 13:43:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2026-02-03 21:51:49</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>29329</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>08:08:00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BROWSER_20260204_00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>20260201_230105</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>23:01:41</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>4035</v>
+      </c>
+      <c r="L87" t="n">
+        <v>4035</v>
+      </c>
+      <c r="M87" t="n">
+        <v>10472.9</v>
+      </c>
+      <c r="N87" t="n">
+        <v>9152</v>
+      </c>
+      <c r="O87" t="n">
+        <v>3239</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>27</v>
+      </c>
+      <c r="R87" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>634.71</v>
+      </c>
+      <c r="T87" t="n">
+        <v>184.88</v>
+      </c>
+      <c r="U87" t="n">
+        <v>554.66</v>
+      </c>
+      <c r="V87" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="W87" t="n">
+        <v>158.82</v>
+      </c>
+      <c r="X87" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-02-01 23:01:42</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Mouse session 1 - Score: 0.002</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>EM001</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2026-02-04 09:07:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2026-02-04 12:37:40</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>12640</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>03:30:00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>BROWSER_20260204_01</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>20260201_230105</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>23:01:42</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>4035</v>
+      </c>
+      <c r="L88" t="n">
+        <v>4035</v>
+      </c>
+      <c r="M88" t="n">
+        <v>10472.9</v>
+      </c>
+      <c r="N88" t="n">
+        <v>9152</v>
+      </c>
+      <c r="O88" t="n">
+        <v>3239</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>27</v>
+      </c>
+      <c r="R88" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>634.71</v>
+      </c>
+      <c r="T88" t="n">
+        <v>184.88</v>
+      </c>
+      <c r="U88" t="n">
+        <v>554.66</v>
+      </c>
+      <c r="V88" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="W88" t="n">
+        <v>158.82</v>
+      </c>
+      <c r="X88" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-02-01 23:04:12</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Mouse session 1 - Score: 0.171</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>EM001</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2026-02-04 10:03:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2026-02-04 14:06:30</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>14610</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>04:03:00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BROWSER_20260205_00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>20260201_230358</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>23:04:12</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1114</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1114</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2545.57</v>
+      </c>
+      <c r="N89" t="n">
+        <v>2006</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1264</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1189.03</v>
+      </c>
+      <c r="T89" t="n">
+        <v>459.37</v>
+      </c>
+      <c r="U89" t="n">
+        <v>937</v>
+      </c>
+      <c r="V89" t="n">
+        <v>590.41</v>
+      </c>
+      <c r="W89" t="n">
+        <v>391.53</v>
+      </c>
+      <c r="X89" t="n">
+        <v>240.57</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>0.171</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-02-01 23:04:13</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Mouse session 1 - Score: 0.171</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>EM001</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2026-02-05 09:11:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2026-02-05 16:15:23</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>25463</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>07:04:00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>BROWSER_20260206_00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>20260201_230358</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>23:04:13</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1114</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1114</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2545.57</v>
+      </c>
+      <c r="N90" t="n">
+        <v>2006</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1264</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1189.03</v>
+      </c>
+      <c r="T90" t="n">
+        <v>459.37</v>
+      </c>
+      <c r="U90" t="n">
+        <v>937</v>
+      </c>
+      <c r="V90" t="n">
+        <v>590.41</v>
+      </c>
+      <c r="W90" t="n">
+        <v>391.53</v>
+      </c>
+      <c r="X90" t="n">
+        <v>240.57</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0.171</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-02-01 23:24:37</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Mouse session 1 - Score: 0.008</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>EM001</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2026-02-06 14:35:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2026-02-06 18:41:07</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>14767</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>04:06:00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>BROWSER_20260206_01</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>20260201_232413</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>23:24:37</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1270</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1270</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2519.04</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2059</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1095</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="S91" t="n">
+        <v>558.9299999999999</v>
+      </c>
+      <c r="T91" t="n">
+        <v>347.72</v>
+      </c>
+      <c r="U91" t="n">
+        <v>456.86</v>
+      </c>
+      <c r="V91" t="n">
+        <v>242.96</v>
+      </c>
+      <c r="W91" t="n">
+        <v>272.94</v>
+      </c>
+      <c r="X91" t="n">
+        <v>187.85</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-02-01 23:27:04</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Mouse session 1 - Score: 0.005</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>EM001</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2026-02-06 13:10:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2026-02-06 16:55:19</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>13519</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>03:45:00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>BROWSER_20260209_00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>20260201_232645</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>23:27:04</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1894</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1894</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5487.07</v>
+      </c>
+      <c r="N92" t="n">
+        <v>4999</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1158</v>
+      </c>
+      <c r="P92" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>844.53</v>
+      </c>
+      <c r="T92" t="n">
+        <v>67.89</v>
+      </c>
+      <c r="U92" t="n">
+        <v>769.41</v>
+      </c>
+      <c r="V92" t="n">
+        <v>178.23</v>
+      </c>
+      <c r="W92" t="n">
+        <v>45.06</v>
+      </c>
+      <c r="X92" t="n">
+        <v>40.61</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2026-02-01 23:27:05</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Mouse session 1 - Score: 0.005</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>EM001</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2026-02-09 12:39:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2026-02-09 20:52:07</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>29587</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>08:13:00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>BROWSER_20260210_00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>20260201_232645</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>23:27:05</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1894</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1894</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5487.07</v>
+      </c>
+      <c r="N93" t="n">
+        <v>4999</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1158</v>
+      </c>
+      <c r="P93" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>844.53</v>
+      </c>
+      <c r="T93" t="n">
+        <v>67.89</v>
+      </c>
+      <c r="U93" t="n">
+        <v>769.41</v>
+      </c>
+      <c r="V93" t="n">
+        <v>178.23</v>
+      </c>
+      <c r="W93" t="n">
+        <v>45.06</v>
+      </c>
+      <c r="X93" t="n">
+        <v>40.61</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-02-01 23:40:27</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Mouse session 1 - Score: 0.009</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>EM001</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2026-02-10 09:45:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2026-02-10 13:40:35</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>14135</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>03:55:00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2026-02-10</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>BROWSER_20260210_01</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>20260201_233958</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>23:40:27</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>3805</v>
+      </c>
+      <c r="L94" t="n">
+        <v>3805</v>
+      </c>
+      <c r="M94" t="n">
+        <v>6028.81</v>
+      </c>
+      <c r="N94" t="n">
+        <v>4790</v>
+      </c>
+      <c r="O94" t="n">
+        <v>2346</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="S94" t="n">
+        <v>483.58</v>
+      </c>
+      <c r="T94" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="U94" t="n">
+        <v>384.21</v>
+      </c>
+      <c r="V94" t="n">
+        <v>188.18</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X94" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-02-01 23:40:28</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Mouse session 1 - Score: 0.009</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>EM001</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2026-02-10 09:50:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2026-02-10 14:06:18</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>15378</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>04:16:00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2026-02-10</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>BROWSER_20260211_00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>20260201_233958</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>23:40:28</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>3805</v>
+      </c>
+      <c r="L95" t="n">
+        <v>3805</v>
+      </c>
+      <c r="M95" t="n">
+        <v>6028.81</v>
+      </c>
+      <c r="N95" t="n">
+        <v>4790</v>
+      </c>
+      <c r="O95" t="n">
+        <v>2346</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="S95" t="n">
+        <v>483.58</v>
+      </c>
+      <c r="T95" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="U95" t="n">
+        <v>384.21</v>
+      </c>
+      <c r="V95" t="n">
+        <v>188.18</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X95" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-02-01 23:43:15</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Mouse session 1 - Score: 0.001</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>EM001</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2026-02-11 12:35:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2026-02-11 19:35:58</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>25258</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>07:00:00</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2026-02-11</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>BROWSER_20260212_00</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2026-02-12 11:21:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2026-02-12 15:50:02</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>16142</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>04:29:00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>BROWSER_20260212_01</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2026-02-12 12:58:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2026-02-12 16:47:15</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>13755</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>03:49:00</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>BROWSER_20260213_00</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2026-02-13 14:08:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2026-02-13 18:31:52</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>15832</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>04:23:00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>BROWSER_20260213_01</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2026-02-13 13:54:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2026-02-13 18:16:51</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>15771</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>04:22:00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>BROWSER_20260216_00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2026-02-16 10:24:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2026-02-16 18:19:23</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>28523</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>07:55:00</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>BROWSER_20260217_00</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2026-02-17 14:44:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2026-02-17 18:18:27</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>12867</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>03:34:00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2026-02-17</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>BROWSER_20260217_01</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2026-02-17 15:13:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2026-02-17 19:12:25</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>14365</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>03:59:00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2026-02-17</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>BROWSER_20260218_00</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2026-02-18 08:03:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2026-02-18 11:42:55</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>13195</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>03:39:00</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2026-02-18</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>BROWSER_20260218_01</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2026-02-18 13:52:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2026-02-18 17:40:20</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>13700</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>03:48:00</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2026-02-18</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>BROWSER_20260219_00</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2026-02-19 09:26:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2026-02-19 13:11:51</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>13551</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>03:45:00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>BROWSER_20260219_01</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2026-02-19 11:20:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2026-02-19 15:32:49</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>15169</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>04:12:00</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>BROWSER_20260220_00</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2026-02-20 13:48:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2026-02-20 20:55:26</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>25646</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>07:07:00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>BROWSER_20260223_00</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2026-02-23 10:11:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2026-02-23 17:32:24</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>26484</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>07:21:00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>BROWSER_20260224_00</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2026-02-24 08:09:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2026-02-24 16:20:43</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>29503</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>08:11:00</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>BROWSER_20260225_00</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2026-02-25 15:24:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2026-02-25 19:20:52</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>14212</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>03:56:00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>BROWSER_20260225_01</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2026-02-25 10:53:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2026-02-25 14:41:45</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>13725</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>03:48:00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>BROWSER_20260226_00</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2026-02-26 15:52:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2026-02-27 00:20:11</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>30491</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>08:28:00</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>BROWSER_20260227_00</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2026-02-27 11:55:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2026-02-27 16:16:41</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>15701</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>04:21:00</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>BROWSER_20260227_01</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2026-02-27 13:06:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2026-02-27 17:09:06</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>14586</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>04:03:00</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>20260201_234248</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>23:43:15</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2023</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3505.24</v>
+      </c>
+      <c r="N96" t="n">
+        <v>2842</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1470</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="S96" t="n">
+        <v>225.94</v>
+      </c>
+      <c r="T96" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="U96" t="n">
+        <v>183.19</v>
+      </c>
+      <c r="V96" t="n">
+        <v>94.75</v>
+      </c>
+      <c r="W96" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X96" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>0.001</v>
       </c>
     </row>
   </sheetData>
